--- a/data/unchecked/manual_collect/china/shandong/shandongCaseStatistics_20200310.xlsx
+++ b/data/unchecked/manual_collect/china/shandong/shandongCaseStatistics_20200310.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9050" windowHeight="6870"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -517,6 +517,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>2020</t>
     </r>
     <r>
@@ -636,6 +643,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>2020</t>
     </r>
     <r>
@@ -10467,10 +10481,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
   </numFmts>
@@ -10562,9 +10576,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10575,17 +10597,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10607,35 +10620,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -10650,9 +10634,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10674,9 +10665,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10690,15 +10687,32 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10739,6 +10753,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -10751,49 +10801,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10811,19 +10837,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10835,31 +10885,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10871,19 +10909,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10895,31 +10927,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10936,19 +10950,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10972,22 +11014,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11006,175 +11044,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11554,8 +11568,8 @@
   <sheetPr/>
   <dimension ref="A1:AN20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9230769230769" defaultRowHeight="16.5"/>
@@ -11737,7 +11751,9 @@
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
-      <c r="I2" s="18"/>
+      <c r="I2" s="18">
+        <v>1</v>
+      </c>
       <c r="J2" s="15"/>
       <c r="K2" s="18">
         <v>18</v>
@@ -12904,18 +12920,9 @@
       <c r="I20" s="11">
         <v>1</v>
       </c>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
       <c r="M20" s="11">
         <v>1</v>
       </c>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
       <c r="T20" s="21"/>
     </row>
   </sheetData>
@@ -12923,23 +12930,23 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G21:G1048576">
       <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:R2 K19 I20:J20 K20 L20:R20 J2:J17 K21:K1048576 L3:L17 N3:N17 P3:R17 I18:J19 I21:J1048576 L18:R19 L21:R1048576">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG20 AM20 AG2:AG19 AG21:AG1048576 AM2:AM19 AM21:AM1048576">
-      <formula1>"核查通过,核查未通过"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B20 B2:B19 B21:B1048576">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA20 AE20 AK20 AA2:AA19 AA21:AA1048576 AE2:AE19 AE21:AE1048576 AK2:AK19 AK21:AK1048576">
-      <formula1>"手动,自动"</formula1>
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:R2 K19 I20:J20 K20 L20:R20 J2:J17 K21:K1048576 L3:L17 N3:N17 P3:R17 I18:J19 I21:J1048576 L18:R19 L21:R1048576">
+      <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20 H2:H19 H21:H1048576">
       <formula1>INDIRECT($G2)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="F20 F2:F19 F21:F1048576">
       <formula1>中国各省市区县数据!$E$2:$E$36</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG20 AM20 AG2:AG19 AG21:AG1048576 AM2:AM19 AM21:AM1048576">
+      <formula1>"核查通过,核查未通过"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA20 AE20 AK20 AA2:AA19 AA21:AA1048576 AE2:AE19 AE21:AE1048576 AK2:AK19 AK21:AK1048576">
+      <formula1>"手动,自动"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC20 AC2:AC19 AC21:AC1048576">
       <formula1>"未核查,已核查"</formula1>
